--- a/xlsx/公共交通_intext.xlsx
+++ b/xlsx/公共交通_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="330">
   <si>
     <t>公共交通</t>
   </si>
@@ -26,34 +26,34 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E8%BB%8C%E9%81%93%E4%BA%A4%E9%80%9A%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>城市軌道交通系統</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_公共交通</t>
+    <t>城市轨道交通系统</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_公共交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E9%90%B5</t>
   </si>
   <si>
-    <t>港鐵</t>
+    <t>港铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%80%E5%A1%98%E7%B6%AB</t>
   </si>
   <si>
-    <t>觀塘綫</t>
+    <t>观塘线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E6%B3%B0%E7%99%BB%E5%B3%B6</t>
   </si>
   <si>
-    <t>史泰登島</t>
+    <t>史泰登岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E5%96%AE%E8%BB%8C%E9%9B%BB%E8%BB%8A</t>
   </si>
   <si>
-    <t>東京單軌電車</t>
+    <t>东京单轨电车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%93%A5%E8%8F%AF%E6%9E%B6%E7%A9%BA%E5%88%97%E8%BB%8A</t>
   </si>
   <si>
-    <t>溫哥華架空列車</t>
+    <t>温哥华架空列车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E9%87%8C%E5%A5%87%E5%B7%B4</t>
   </si>
   <si>
-    <t>庫里奇巴</t>
+    <t>库里奇巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E8%BB%8A%E6%8D%B7%E9%81%8B%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>公車捷運系統</t>
+    <t>公车捷运系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD%E8%8B%B1%E8%AF%AD</t>
@@ -131,19 +131,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>公共汽車</t>
+    <t>公共汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8C%E9%81%93%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>軌道交通</t>
+    <t>轨道交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A1%E8%BC%AA</t>
   </si>
   <si>
-    <t>渡輪</t>
+    <t>渡轮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%81%93</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%A4%A7%E9%99%86</t>
@@ -179,9 +179,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%B1%BD%E8%BD%A6</t>
   </si>
   <si>
-    <t>公共汽车</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%BD%A6</t>
   </si>
   <si>
@@ -191,25 +188,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%B7%AF%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>鐵路運輸</t>
+    <t>铁路运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E8%BB%8C%E9%81%93%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>城市軌道交通</t>
+    <t>城市轨道交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%8B%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>地下鐵路</t>
+    <t>地下铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E9%81%8B</t>
   </si>
   <si>
-    <t>捷運</t>
+    <t>捷运</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%BB%E8%BD%A8</t>
@@ -221,67 +218,67 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E9%9D%A2%E9%9B%BB%E8%BB%8A</t>
   </si>
   <si>
-    <t>路面電車</t>
+    <t>路面电车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>區域鐵路</t>
+    <t>区域铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E5%8B%A4%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>通勤鐵路</t>
+    <t>通勤铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%9C%E7%B4%A2%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>纜索鐵路</t>
+    <t>缆索铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%80%9F%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>高速鐵路</t>
+    <t>高速铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BD%92%E8%BB%8C%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>齒軌鐵路</t>
+    <t>齿轨铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E8%BB%8C%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>單軌鐵路</t>
+    <t>单轨铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A3%81%E6%87%B8%E6%B5%AE%E5%88%97%E8%BB%8A</t>
   </si>
   <si>
-    <t>磁懸浮列車</t>
+    <t>磁悬浮列车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E4%B8%AD%E7%BA%9C%E8%BB%8A</t>
   </si>
   <si>
-    <t>空中纜車</t>
+    <t>空中缆车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8E%E5%90%91%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>導向巴士</t>
+    <t>导向巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E8%BB%8C%E9%9B%BB%E8%BB%8A</t>
   </si>
   <si>
-    <t>無軌電車</t>
+    <t>无轨电车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A3%AB%E5%BF%AB%E9%80%9F%E4%BA%A4%E9%80%9A</t>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%87%AA%E8%A1%8C%E8%BB%8A</t>
   </si>
   <si>
-    <t>公共自行車</t>
+    <t>公共自行车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%BD%AE</t>
@@ -311,19 +308,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E4%B8%8A%E8%A8%88%E7%A8%8B%E8%BB%8A</t>
   </si>
   <si>
-    <t>水上計程車</t>
+    <t>水上计程车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E8%88%AA%E9%A3%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>民航飛機</t>
+    <t>民航飞机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%98%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>直昇機</t>
+    <t>直昇机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E6%A2%AF</t>
@@ -335,13 +332,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8B%95%E6%89%B6%E6%A2%AF</t>
   </si>
   <si>
-    <t>電動扶梯</t>
+    <t>电动扶梯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8B%95%E6%AD%A5%E9%81%93</t>
   </si>
   <si>
-    <t>電動步道</t>
+    <t>电动步道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%85%AC%E5%85%B1%E4%BA%A4%E9%80%9A</t>
@@ -359,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E8%93%AC%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>開蓬巴士</t>
+    <t>开蓬巴士</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Paratransit</t>
@@ -383,25 +380,22 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E8%A6%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>遊覽車</t>
+    <t>游览车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%A2%83%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>過境巴士</t>
+    <t>过境巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%86%E7%B4%A2%E9%93%81%E8%B7%AF</t>
   </si>
   <si>
-    <t>缆索铁路</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%9E%8B%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>重型鐵路</t>
+    <t>重型铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%82%E5%85%89%E9%93%81%E8%B7%AF</t>
@@ -413,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%9A%9B%E5%88%97%E8%BB%8A</t>
   </si>
   <si>
-    <t>城際列車</t>
+    <t>城际列车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9F%9F%E9%93%81%E8%B7%AF</t>
@@ -425,31 +419,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%95%E8%BB%8C%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>輕軌運輸</t>
+    <t>轻轨运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9E%8B%E9%90%B5%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>中型鐵路系統</t>
+    <t>中型铁路系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E5%AE%A2%E6%8D%B7%E9%81%8B%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>旅客捷運系統</t>
+    <t>旅客捷运系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%A0%E8%BC%AA%E8%B7%AF%E8%BB%8C%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>膠輪路軌系統</t>
+    <t>胶轮路轨系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E8%BB%8C%E9%9B%BB%E8%BB%8A</t>
   </si>
   <si>
-    <t>有軌電車</t>
+    <t>有轨电车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Tram-train</t>
@@ -479,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%BB%8A</t>
   </si>
   <si>
-    <t>人力車</t>
+    <t>人力车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E4%B8%89%E8%BD%AE%E8%BD%A6</t>
@@ -491,25 +485,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%BB%8A</t>
   </si>
   <si>
-    <t>馬車</t>
+    <t>马车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%B9%98%E8%A8%88%E7%A8%8B%E8%BB%8A</t>
   </si>
   <si>
-    <t>合乘計程車</t>
+    <t>合乘计程车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%A8%8B%E8%BB%8A</t>
   </si>
   <si>
-    <t>計程車</t>
+    <t>计程车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9D%91%E8%BB%8A</t>
   </si>
   <si>
-    <t>鄉村車</t>
+    <t>乡村车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BC%E8%BD%A6</t>
@@ -527,19 +521,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%B9%E9%81%8B</t>
   </si>
   <si>
-    <t>船運</t>
+    <t>船运</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%AB%E6%B0%B4%E6%B8%A1</t>
   </si>
   <si>
-    <t>橫水渡</t>
+    <t>横水渡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E5%A2%8A%E8%88%B9</t>
   </si>
   <si>
-    <t>氣墊船</t>
+    <t>气垫船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%BF%BC%E8%88%B9</t>
@@ -551,15 +545,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%A0%E6%B4%8B%E9%83%B5%E8%BC%AA</t>
   </si>
   <si>
-    <t>遠洋郵輪</t>
+    <t>远洋邮轮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%8A%A8%E6%89%B6%E6%A2%AF</t>
   </si>
   <si>
-    <t>电动扶梯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82</t>
   </si>
   <si>
@@ -587,7 +578,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%BF%83%E5%95%86%E5%8B%99%E5%8D%80</t>
   </si>
   <si>
-    <t>中心商務區</t>
+    <t>中心商务区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E6%88%90%E5%8C%BA</t>
@@ -617,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%8D%80%E6%9B%B4%E6%96%B0</t>
   </si>
   <si>
-    <t>市區更新</t>
+    <t>市区更新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%95%87%E4%BD%93%E7%B3%BB</t>
@@ -653,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>環境設計</t>
+    <t>环境设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%AD%E6%9E%97%E8%AE%BE%E8%AE%A1</t>
@@ -665,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AF%E8%A7%80%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>景觀設計</t>
+    <t>景观设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83</t>
@@ -677,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠色建築</t>
+    <t>绿色建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E5%9B%AD%E5%9F%8E%E5%B8%82%E7%90%86%E8%AE%BA</t>
@@ -701,13 +692,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E6%86%B2%E7%AB%A0</t>
   </si>
   <si>
-    <t>雅典憲章</t>
+    <t>雅典宪章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E5%90%88%E5%9F%8E%E5%B8%82</t>
   </si>
   <si>
-    <t>組合城市</t>
+    <t>组合城市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%A8%E6%88%B7%E5%9F%8E%E5%B8%82</t>
@@ -719,13 +710,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%98%9F%E5%9F%8E%E5%B8%82</t>
   </si>
   <si>
-    <t>衛星城市</t>
+    <t>卫星城市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B8%82%E9%8E%AE</t>
   </si>
   <si>
-    <t>新市鎮</t>
+    <t>新市镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%BB%E9%87%8C%E5%8D%95%E4%BD%8D</t>
@@ -773,7 +764,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%83%BD%E5%B8%82%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新都市主義</t>
+    <t>新都市主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B9%E7%BC%98%E5%9F%8E%E5%B8%82</t>
@@ -803,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%9F%8E</t>
   </si>
   <si>
-    <t>雙城</t>
+    <t>双城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%BF%83%E5%9C%B0%E7%90%86%E8%AE%BA</t>
@@ -821,7 +812,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%BD%B1%E9%9F%BF%E8%A9%95%E4%BC%B0</t>
   </si>
   <si>
-    <t>環境影響評估</t>
+    <t>环境影响评估</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E6%89%BF%E8%BD%BD%E5%8A%9B</t>
@@ -875,13 +866,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%8F%E9%A2%A8%E6%A8%93</t>
   </si>
   <si>
-    <t>屏風樓</t>
+    <t>屏风楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%9B%E5%B0%BE%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>爛尾建築</t>
+    <t>烂尾建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E9%80%9A%E5%A0%B5%E5%A1%9E</t>
@@ -899,13 +890,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AC%BC%E9%8E%AE</t>
   </si>
   <si>
-    <t>鬼鎮</t>
+    <t>鬼镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>地理學</t>
+    <t>地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91%E5%AD%A6</t>
@@ -941,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>生態學</t>
+    <t>生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
@@ -965,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境科學</t>
+    <t>环境科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91%E5%AE%B9%E7%A7%AF%E7%8E%87</t>
@@ -1001,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%8D%80%E6%94%B9%E6%AD%A3</t>
   </si>
   <si>
-    <t>市區改正</t>
+    <t>市区改正</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B4%A5%E5%9F%8E%E5%B8%82%E8%A7%84%E5%88%92</t>
@@ -1013,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%96%B0%E5%B8%82%E9%8E%AE</t>
   </si>
   <si>
-    <t>香港新市鎮</t>
+    <t>香港新市镇</t>
   </si>
 </sst>
 </file>
@@ -2138,7 +2129,7 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2164,10 +2155,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -2193,10 +2184,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2222,10 +2213,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -2251,10 +2242,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2280,10 +2271,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>4</v>
@@ -2309,10 +2300,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2338,10 +2329,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2367,10 +2358,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -2396,10 +2387,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2425,10 +2416,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2454,10 +2445,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -2483,10 +2474,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2512,10 +2503,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2541,10 +2532,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -2570,10 +2561,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2599,10 +2590,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2628,10 +2619,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2657,10 +2648,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2686,10 +2677,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2715,10 +2706,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2744,10 +2735,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2773,10 +2764,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -2802,10 +2793,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2831,10 +2822,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2860,10 +2851,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2889,10 +2880,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2918,10 +2909,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2947,10 +2938,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>14</v>
@@ -2976,10 +2967,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>8</v>
@@ -3005,10 +2996,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3034,10 +3025,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3063,10 +3054,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3092,10 +3083,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3121,10 +3112,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3150,10 +3141,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3179,10 +3170,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" t="s">
         <v>57</v>
-      </c>
-      <c r="F63" t="s">
-        <v>58</v>
       </c>
       <c r="G63" t="n">
         <v>18</v>
@@ -3208,10 +3199,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3237,10 +3228,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3266,10 +3257,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3295,10 +3286,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3324,10 +3315,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3353,10 +3344,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3382,10 +3373,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3411,10 +3402,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3440,10 +3431,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3469,10 +3460,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3498,10 +3489,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3527,10 +3518,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3556,10 +3547,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3585,10 +3576,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3614,10 +3605,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3643,10 +3634,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3672,10 +3663,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3701,10 +3692,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3730,10 +3721,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>5</v>
@@ -3759,10 +3750,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3788,10 +3779,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3817,10 +3808,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3846,10 +3837,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3875,10 +3866,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3904,10 +3895,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3933,10 +3924,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3962,10 +3953,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3991,10 +3982,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>105</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4020,10 +4011,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G92" t="n">
         <v>41</v>
@@ -4049,10 +4040,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G93" t="n">
         <v>7</v>
@@ -4078,10 +4069,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4107,10 +4098,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4136,10 +4127,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4165,10 +4156,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4194,10 +4185,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G98" t="n">
         <v>3</v>
@@ -4223,10 +4214,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4252,10 +4243,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4281,10 +4272,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4310,10 +4301,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -4339,10 +4330,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4368,10 +4359,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G104" t="n">
         <v>3</v>
@@ -4397,10 +4388,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4426,10 +4417,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4455,10 +4446,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4484,10 +4475,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4513,10 +4504,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4542,10 +4533,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4571,10 +4562,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4600,10 +4591,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4629,10 +4620,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4658,10 +4649,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4687,10 +4678,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4716,10 +4707,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4745,10 +4736,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4774,10 +4765,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4803,10 +4794,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4832,10 +4823,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4861,10 +4852,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4890,10 +4881,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4919,10 +4910,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4948,10 +4939,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4977,10 +4968,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5006,10 +4997,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5035,10 +5026,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5064,10 +5055,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5093,10 +5084,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5122,10 +5113,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5151,10 +5142,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5180,10 +5171,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5209,10 +5200,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5238,10 +5229,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5267,10 +5258,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5296,10 +5287,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5325,10 +5316,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5354,10 +5345,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5383,10 +5374,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5412,10 +5403,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5441,10 +5432,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5470,10 +5461,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5499,10 +5490,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5528,10 +5519,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5557,10 +5548,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5586,10 +5577,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5615,10 +5606,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5644,10 +5635,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5673,10 +5664,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5702,10 +5693,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5731,10 +5722,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5760,10 +5751,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5789,10 +5780,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5818,10 +5809,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5847,10 +5838,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5876,10 +5867,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5905,10 +5896,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5934,10 +5925,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5963,10 +5954,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5992,10 +5983,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6021,10 +6012,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6050,10 +6041,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6079,10 +6070,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6108,10 +6099,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6137,10 +6128,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6166,10 +6157,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6195,10 +6186,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
